--- a/data/hotels_by_city/Houston/Houston_shard_6.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d1866947-Reviews-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Suites-BaytownSan-Jacinto-Mall.h3886230.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,141 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r311158143-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1866947</t>
+  </si>
+  <si>
+    <t>311158143</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Terrible Hotel</t>
+  </si>
+  <si>
+    <t>Made a reservation there by accident. We had two non smoking rooms which smelled like smoke. Dirty tissues were found behind nightstand. Desk chair in one room was wet, it was dirty in the other one. Beds/pillows were awful. Room phone did not work. Maintenance man had to come to our rooms to turn on water in shower. He also told us the phones in half the rooms do not work. No apology, just matter of fact. Do NOT stay here. Pictures on website are deceiving!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r286751252-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>286751252</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Worse visit ever</t>
+  </si>
+  <si>
+    <t>Where do I start....First thing the staff when checking in was very short and kind of rude. Then we asked for extra towels (for swimming) and you would have thought we were stealing them! The room only had 2 towels in it in the first place and there was 3 of us. Then we need more towels the following morning to actually shower and the manager told 'housekeeping should be by soon'. I explained to him that my son was in the shower and had nothing to dry off with! He gave me one and said housekeeping would give more! Then while I was shower I noticed there was MOLD on the wall above the shower and on the shower curtain. When I went down to speak with the front desk he once again said housekeeping would clean it! After housekeeping came and saw it wasn't something that could just be cleaned off we were moved rooms. We were down graded from a room with basically a full kitchen with a full fridge, stove, cabinets, basically an extremely nice room to a room that had a mini fridge and mini microwave. Then I got locked out of the room and they didn't ID me or anything they went and let me in to the room no questions ask! Then 07/04 a group of people were shooting fireworks off that was fine until midnight. I asked the front desk to stop...Where do I start....First thing the staff when checking in was very short and kind of rude. Then we asked for extra towels (for swimming) and you would have thought we were stealing them! The room only had 2 towels in it in the first place and there was 3 of us. Then we need more towels the following morning to actually shower and the manager told 'housekeeping should be by soon'. I explained to him that my son was in the shower and had nothing to dry off with! He gave me one and said housekeeping would give more! Then while I was shower I noticed there was MOLD on the wall above the shower and on the shower curtain. When I went down to speak with the front desk he once again said housekeeping would clean it! After housekeeping came and saw it wasn't something that could just be cleaned off we were moved rooms. We were down graded from a room with basically a full kitchen with a full fridge, stove, cabinets, basically an extremely nice room to a room that had a mini fridge and mini microwave. Then I got locked out of the room and they didn't ID me or anything they went and let me in to the room no questions ask! Then 07/04 a group of people were shooting fireworks off that was fine until midnight. I asked the front desk to stop and they refused to quote them the said 'that is none of our (curse word) problems they aren't on our property, the firework were being shot from the street.. Told me I need to call 911. Called and 911 said there was nothing they could do.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Where do I start....First thing the staff when checking in was very short and kind of rude. Then we asked for extra towels (for swimming) and you would have thought we were stealing them! The room only had 2 towels in it in the first place and there was 3 of us. Then we need more towels the following morning to actually shower and the manager told 'housekeeping should be by soon'. I explained to him that my son was in the shower and had nothing to dry off with! He gave me one and said housekeeping would give more! Then while I was shower I noticed there was MOLD on the wall above the shower and on the shower curtain. When I went down to speak with the front desk he once again said housekeeping would clean it! After housekeeping came and saw it wasn't something that could just be cleaned off we were moved rooms. We were down graded from a room with basically a full kitchen with a full fridge, stove, cabinets, basically an extremely nice room to a room that had a mini fridge and mini microwave. Then I got locked out of the room and they didn't ID me or anything they went and let me in to the room no questions ask! Then 07/04 a group of people were shooting fireworks off that was fine until midnight. I asked the front desk to stop...Where do I start....First thing the staff when checking in was very short and kind of rude. Then we asked for extra towels (for swimming) and you would have thought we were stealing them! The room only had 2 towels in it in the first place and there was 3 of us. Then we need more towels the following morning to actually shower and the manager told 'housekeeping should be by soon'. I explained to him that my son was in the shower and had nothing to dry off with! He gave me one and said housekeeping would give more! Then while I was shower I noticed there was MOLD on the wall above the shower and on the shower curtain. When I went down to speak with the front desk he once again said housekeeping would clean it! After housekeeping came and saw it wasn't something that could just be cleaned off we were moved rooms. We were down graded from a room with basically a full kitchen with a full fridge, stove, cabinets, basically an extremely nice room to a room that had a mini fridge and mini microwave. Then I got locked out of the room and they didn't ID me or anything they went and let me in to the room no questions ask! Then 07/04 a group of people were shooting fireworks off that was fine until midnight. I asked the front desk to stop and they refused to quote them the said 'that is none of our (curse word) problems they aren't on our property, the firework were being shot from the street.. Told me I need to call 911. Called and 911 said there was nothing they could do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r239957491-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>239957491</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Not the BEST!</t>
+  </si>
+  <si>
+    <t>Not the best motel on the planet. I would not recommend this one to a family or business traveler. The room they initially put us in smelled of mold, because the air-condition was leaking and the carpet was wet. Mainly workers were here because they worked in the local area. (Some of them were hanging out on the balcony and I could hear them all night long, and I did not rest well. I told management and of course they really did not care.)The value of this motel is overpriced go across the street to the Holiday Inn Express on Garth Road and pay $20 more to have a secure, quiet and friendly professional staff that will ensure all your needs are met. I went across to the Holiday Inn Express my next visit to Baytown, Texas and trust me it was so worth the peace of mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Not the best motel on the planet. I would not recommend this one to a family or business traveler. The room they initially put us in smelled of mold, because the air-condition was leaking and the carpet was wet. Mainly workers were here because they worked in the local area. (Some of them were hanging out on the balcony and I could hear them all night long, and I did not rest well. I told management and of course they really did not care.)The value of this motel is overpriced go across the street to the Holiday Inn Express on Garth Road and pay $20 more to have a secure, quiet and friendly professional staff that will ensure all your needs are met. I went across to the Holiday Inn Express my next visit to Baytown, Texas and trust me it was so worth the peace of mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r169182072-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>169182072</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>This was a decent hotel. It was Very crowded. The room we had was big, spacious and a good price. The pool is a salt water pool, but kind of small for such a big hotel. We were overall pleased, but would probably not stay there again because of the lack of breakfast options and that there are many nicer places to stay in the area.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r165982638-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>165982638</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>still fairly New</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by the rate I received and the nice breakfast. Rooms are very spacious and comfortable. Hotel desk offers a variety of snacks, some can be heated/cooked in the microwave in the room. Fair warning, in the summer the pool looks cool and inviting....but the water is actually a cozy warm. There is also a slight oder to the water. Overall the stay was several days and enjoyable.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r156646993-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>156646993</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>My usual spot</t>
+  </si>
+  <si>
+    <t>The job I do requires me to travel to Bellingham a lot.  I'm on per diem so having a fridge and microwave is great.  Free breakfast is a plus.  All the amenities offered works well with what I need.  This is the only place I stay when I'm in town.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
 </sst>
 </file>
@@ -532,11 +673,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +705,467 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_6.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_6.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r530354897-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1866947</t>
+  </si>
+  <si>
+    <t>530354897</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Total Liars. Danger</t>
+  </si>
+  <si>
+    <t>My husband and I traveled from Georgia to Baytown, Texas in one day on September 29, 2017.. Exhausted we booked a hotel through Expedia at 11:30 p.m.  We arrive at the hotel 30 minutes later in our dually truck pulling a car hauler trailer.  There was no where to park.  My husband went to the office which was locked up to check in. An Indian man came to the window and spoke to him through a small opening.  He told us he could not accommodate our vehicle and suggested we go somewhere else.  My husband told him we had booked through Expedia (used our points) and he said it would be no problem.  Just to call Expedia and tell them what happened.  We drove down the road, found another hotel, paid for another room and called Expedia within the next 30 minutes.  The Expedia agent said she would contact the hotel and would give a response to us asking for a refund the next day.  We were denied by Expedia and were told the hotel listed us as a no show (not true).  We called Expedia again, the agent assured us they would contact the hotel again and would look into it.  Just received another denial email saying the hotel would not refund because it was against the hotel's policy.  Interesting since the hotel worker that night told us to leave because the hotel could not accommodate our vehicle. We...My husband and I traveled from Georgia to Baytown, Texas in one day on September 29, 2017.. Exhausted we booked a hotel through Expedia at 11:30 p.m.  We arrive at the hotel 30 minutes later in our dually truck pulling a car hauler trailer.  There was no where to park.  My husband went to the office which was locked up to check in. An Indian man came to the window and spoke to him through a small opening.  He told us he could not accommodate our vehicle and suggested we go somewhere else.  My husband told him we had booked through Expedia (used our points) and he said it would be no problem.  Just to call Expedia and tell them what happened.  We drove down the road, found another hotel, paid for another room and called Expedia within the next 30 minutes.  The Expedia agent said she would contact the hotel and would give a response to us asking for a refund the next day.  We were denied by Expedia and were told the hotel listed us as a no show (not true).  We called Expedia again, the agent assured us they would contact the hotel again and would look into it.  Just received another denial email saying the hotel would not refund because it was against the hotel's policy.  Interesting since the hotel worker that night told us to leave because the hotel could not accommodate our vehicle. We are a silver plus member with Expedia and while we were told the matter was up to the hotel, we are second guessing the pros of using the Expedia service. We are taking further action.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I traveled from Georgia to Baytown, Texas in one day on September 29, 2017.. Exhausted we booked a hotel through Expedia at 11:30 p.m.  We arrive at the hotel 30 minutes later in our dually truck pulling a car hauler trailer.  There was no where to park.  My husband went to the office which was locked up to check in. An Indian man came to the window and spoke to him through a small opening.  He told us he could not accommodate our vehicle and suggested we go somewhere else.  My husband told him we had booked through Expedia (used our points) and he said it would be no problem.  Just to call Expedia and tell them what happened.  We drove down the road, found another hotel, paid for another room and called Expedia within the next 30 minutes.  The Expedia agent said she would contact the hotel and would give a response to us asking for a refund the next day.  We were denied by Expedia and were told the hotel listed us as a no show (not true).  We called Expedia again, the agent assured us they would contact the hotel again and would look into it.  Just received another denial email saying the hotel would not refund because it was against the hotel's policy.  Interesting since the hotel worker that night told us to leave because the hotel could not accommodate our vehicle. We...My husband and I traveled from Georgia to Baytown, Texas in one day on September 29, 2017.. Exhausted we booked a hotel through Expedia at 11:30 p.m.  We arrive at the hotel 30 minutes later in our dually truck pulling a car hauler trailer.  There was no where to park.  My husband went to the office which was locked up to check in. An Indian man came to the window and spoke to him through a small opening.  He told us he could not accommodate our vehicle and suggested we go somewhere else.  My husband told him we had booked through Expedia (used our points) and he said it would be no problem.  Just to call Expedia and tell them what happened.  We drove down the road, found another hotel, paid for another room and called Expedia within the next 30 minutes.  The Expedia agent said she would contact the hotel and would give a response to us asking for a refund the next day.  We were denied by Expedia and were told the hotel listed us as a no show (not true).  We called Expedia again, the agent assured us they would contact the hotel again and would look into it.  Just received another denial email saying the hotel would not refund because it was against the hotel's policy.  Interesting since the hotel worker that night told us to leave because the hotel could not accommodate our vehicle. We are a silver plus member with Expedia and while we were told the matter was up to the hotel, we are second guessing the pros of using the Expedia service. We are taking further action.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r326105749-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>326105749</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Worth the Value</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 days and the reason I am giving it a very good rating is because of their hospitality. The staff was very accommodating to us our entire stay. When we checked in we were 3 hours early and had driven straight through for 18 hours and they were very gracious about letting us check in before 3pm. Their hospitality did not stop there. We were treated very well throughout the duration of our visit. The two things that were a little disappointing were the size of the parking lot (which they have no control over) and the thin pillows on the bed. All in all, we had a comfortable stay and the price was right. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 days and the reason I am giving it a very good rating is because of their hospitality. The staff was very accommodating to us our entire stay. When we checked in we were 3 hours early and had driven straight through for 18 hours and they were very gracious about letting us check in before 3pm. Their hospitality did not stop there. We were treated very well throughout the duration of our visit. The two things that were a little disappointing were the size of the parking lot (which they have no control over) and the thin pillows on the bed. All in all, we had a comfortable stay and the price was right. We would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r311158143-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>1866947</t>
-  </si>
-  <si>
     <t>311158143</t>
   </si>
   <si>
@@ -174,9 +219,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r286751252-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
   </si>
   <si>
@@ -225,6 +267,48 @@
     <t>Not the best motel on the planet. I would not recommend this one to a family or business traveler. The room they initially put us in smelled of mold, because the air-condition was leaking and the carpet was wet. Mainly workers were here because they worked in the local area. (Some of them were hanging out on the balcony and I could hear them all night long, and I did not rest well. I told management and of course they really did not care.)The value of this motel is overpriced go across the street to the Holiday Inn Express on Garth Road and pay $20 more to have a secure, quiet and friendly professional staff that will ensure all your needs are met. I went across to the Holiday Inn Express my next visit to Baytown, Texas and trust me it was so worth the peace of mind.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r208863776-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>208863776</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>So, So...</t>
+  </si>
+  <si>
+    <t>Periodically I work in Baytown on weekends. New area hotels have popped up and that's good. However, the search for a less expensive room (even tho' I am reimbursed) has become a quest. Typically, if it's cheaper, it's old, or rough. Happily, I found the Econo Lodge a new hotel. The price was certainly on the right side but I was a bit dismayed to say the least. Party time around the pool with drinking and loudness. So little AC in the lobby (where breakfast is served) as to be jungle like. Although my room was comfortable and clean it has been smoked in. The parking lot had a back gate open that made security feel as if it were an afterthought or non-considered. So, I'm going to spend a little more next time and get more of what I want.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Periodically I work in Baytown on weekends. New area hotels have popped up and that's good. However, the search for a less expensive room (even tho' I am reimbursed) has become a quest. Typically, if it's cheaper, it's old, or rough. Happily, I found the Econo Lodge a new hotel. The price was certainly on the right side but I was a bit dismayed to say the least. Party time around the pool with drinking and loudness. So little AC in the lobby (where breakfast is served) as to be jungle like. Although my room was comfortable and clean it has been smoked in. The parking lot had a back gate open that made security feel as if it were an afterthought or non-considered. So, I'm going to spend a little more next time and get more of what I want.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r188125537-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>188125537</t>
+  </si>
+  <si>
+    <t>12/20/2013</t>
+  </si>
+  <si>
+    <t>will not return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door to lobby was locked when I went for breakfast.  Had to go back twice until someone in pajamas let me in at 8:30 a.m.  Door to room wouldn't stay shut unless slammed.  Room clean.  TV worked. Good area </t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r169182072-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
   </si>
   <si>
@@ -280,6 +364,45 @@
   </si>
   <si>
     <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r132729630-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>132729630</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Guess you get what you pay for...</t>
+  </si>
+  <si>
+    <t>I stopped at this hotel about 11:00 p.m. Thursday night because we were so tired of driving and the rate was only $65. They had a room available on the first floor, which was a plus, one king bed and a sofabed. It was just me and my two children so this was fine. The room was clean-looking and the sheets were clean, but the pillows themselves were badly stained. I could see something between the mattress and the headboard and when I pulled back the mattress, there was a pair of gym shorts wadded up. Gross. The shower didn't drain and by the time I got done, I was standing in ankle-high water. The bottle of water I purchased from the soda machine was a solid bottle of ice. The television didn't work very well - the channels took a long time to register and some of the channels didn't have volume or didn't work at all. It was decent enough for a quick overnight stay, but I wouldn't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I stopped at this hotel about 11:00 p.m. Thursday night because we were so tired of driving and the rate was only $65. They had a room available on the first floor, which was a plus, one king bed and a sofabed. It was just me and my two children so this was fine. The room was clean-looking and the sheets were clean, but the pillows themselves were badly stained. I could see something between the mattress and the headboard and when I pulled back the mattress, there was a pair of gym shorts wadded up. Gross. The shower didn't drain and by the time I got done, I was standing in ankle-high water. The bottle of water I purchased from the soda machine was a solid bottle of ice. The television didn't work very well - the channels took a long time to register and some of the channels didn't have volume or didn't work at all. It was decent enough for a quick overnight stay, but I wouldn't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1866947-r114035363-Americas_Best_Value_Inn_Suites_Baytown_San_Jacinto_Mall-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>114035363</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>We would stay here again!</t>
+  </si>
+  <si>
+    <t>We stayed here for business and it worked out well for us. The price was very reasonable for the room. Clean and comfortable. The kitchenette  was very handy. The property is brand new and looks great.  Beautiful rooms. My only complaint would be that you can hear everything that goes on outside. Also, the parking was limited. Other than that, everything was great!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
   </si>
 </sst>
 </file>
@@ -822,14 +945,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>1</v>
@@ -840,7 +961,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -856,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -865,32 +986,36 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -940,17 +1065,13 @@
         <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="n">
         <v>1</v>
       </c>
@@ -964,7 +1085,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -980,7 +1101,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -989,49 +1110,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1179,7 @@
         <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>80</v>
@@ -1077,20 +1188,20 @@
         <v>81</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1098,7 +1209,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1114,7 +1225,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1123,41 +1234,41 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1165,7 +1276,405 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61333</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
